--- a/results/validation_gaps/__VALIDATION_ROBUSTNESS_AND_ERRORS/Operator_Error/errors_note_not_expected.xlsx
+++ b/results/validation_gaps/__VALIDATION_ROBUSTNESS_AND_ERRORS/Operator_Error/errors_note_not_expected.xlsx
@@ -481,10 +481,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="n">
@@ -510,10 +510,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="n">
@@ -539,10 +539,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="n">
@@ -568,10 +568,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="n">
@@ -597,10 +597,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="n">
@@ -626,10 +626,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="n">
@@ -655,10 +655,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="n">
@@ -684,10 +684,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="n">
@@ -713,10 +713,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="n">
@@ -742,10 +742,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="n">
@@ -771,10 +771,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="n">
@@ -800,10 +800,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="n">
@@ -829,10 +829,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="n">
@@ -858,10 +858,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="n">
@@ -887,10 +887,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="n">
@@ -916,10 +916,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="n">
@@ -945,10 +945,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="n">
@@ -974,10 +974,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="n">
@@ -1003,10 +1003,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="n">
@@ -1032,10 +1032,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="n">
@@ -1061,10 +1061,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="n">
@@ -1090,10 +1090,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="n">
@@ -1119,10 +1119,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="n">
@@ -1148,10 +1148,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="n">
@@ -1177,10 +1177,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="n">
@@ -1206,10 +1206,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="n">
@@ -1235,10 +1235,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="n">
@@ -1264,10 +1264,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="n">
@@ -1293,10 +1293,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="n">
@@ -1322,10 +1322,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="n">
@@ -1351,10 +1351,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="n">
@@ -1380,10 +1380,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="n">
@@ -1409,10 +1409,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="n">
@@ -1438,10 +1438,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="n">
@@ -1467,10 +1467,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="n">
@@ -1496,10 +1496,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="n">
@@ -1525,10 +1525,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="n">
@@ -1554,10 +1554,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="n">
@@ -1583,10 +1583,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="n">
@@ -1612,10 +1612,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="n">
@@ -1641,10 +1641,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="n">
@@ -1670,10 +1670,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="n">
@@ -1699,10 +1699,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="n">
@@ -1728,10 +1728,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="n">
@@ -1757,10 +1757,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="n">
@@ -1786,10 +1786,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="n">
@@ -1815,10 +1815,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="n">
@@ -1844,10 +1844,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="n">
@@ -1873,10 +1873,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>3</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="n">
@@ -1902,10 +1902,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="n">
@@ -1931,10 +1931,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>2</v>
-      </c>
-      <c r="D52" t="n">
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="n">
@@ -1960,10 +1960,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>2</v>
-      </c>
-      <c r="D53" t="n">
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" t="n">
@@ -1989,10 +1989,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>3</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="n">
@@ -2018,10 +2018,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="n">
@@ -2047,10 +2047,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="n">
@@ -2076,10 +2076,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="n">
@@ -2105,10 +2105,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58" t="n">
@@ -2134,10 +2134,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="n">
@@ -2163,10 +2163,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="n">
@@ -2192,10 +2192,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="n">
@@ -2221,10 +2221,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>2</v>
-      </c>
-      <c r="D62" t="n">
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="n">
@@ -2250,10 +2250,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63" t="n">
@@ -2279,10 +2279,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="n">
@@ -2308,10 +2308,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65" t="n">
@@ -2337,10 +2337,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="n">
@@ -2366,10 +2366,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67" t="n">
@@ -2395,10 +2395,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="n">
@@ -2424,10 +2424,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="n">
@@ -2453,10 +2453,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="n">
@@ -2482,10 +2482,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="n">
@@ -2511,10 +2511,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" t="b">
         <v>0</v>
       </c>
       <c r="E72" t="n">
@@ -2540,10 +2540,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="b">
         <v>0</v>
       </c>
       <c r="E73" t="n">
@@ -2569,10 +2569,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
         <v>0</v>
       </c>
       <c r="E74" t="n">
@@ -2598,10 +2598,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75" t="n">
@@ -2627,10 +2627,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" t="n">
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="b">
         <v>0</v>
       </c>
       <c r="E76" t="n">
@@ -2656,10 +2656,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" t="b">
         <v>0</v>
       </c>
       <c r="E77" t="n">
@@ -2685,10 +2685,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78" t="n">
@@ -2714,10 +2714,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="n">
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="n">
@@ -2743,10 +2743,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>2</v>
-      </c>
-      <c r="D80" t="n">
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="n">
@@ -2772,10 +2772,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="n">
@@ -2801,10 +2801,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" t="n">
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="n">
@@ -2830,10 +2830,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="n">
@@ -2859,10 +2859,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>1</v>
-      </c>
-      <c r="D84" t="n">
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" t="b">
         <v>0</v>
       </c>
       <c r="E84" t="n">
@@ -2888,10 +2888,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="n">
@@ -2917,10 +2917,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>2</v>
-      </c>
-      <c r="D86" t="n">
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="n">
@@ -2946,10 +2946,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="n">
@@ -2975,10 +2975,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>2</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+      <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="n">
@@ -3004,10 +3004,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" t="n">
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="n">
@@ -3033,10 +3033,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" t="n">
@@ -3062,10 +3062,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="n">
@@ -3091,10 +3091,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="n">
@@ -3120,10 +3120,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93" t="n">
@@ -3149,10 +3149,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" t="b">
         <v>0</v>
       </c>
       <c r="E94" t="n">
@@ -3178,10 +3178,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="n">
@@ -3207,10 +3207,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="n">
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96" t="n">
@@ -3236,10 +3236,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>1</v>
-      </c>
-      <c r="D97" t="n">
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" t="b">
         <v>0</v>
       </c>
       <c r="E97" t="n">
@@ -3265,10 +3265,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="n">
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="n">
@@ -3294,10 +3294,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="n">
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" t="b">
         <v>0</v>
       </c>
       <c r="E99" t="n">
@@ -3323,10 +3323,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="n">
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" t="b">
         <v>0</v>
       </c>
       <c r="E100" t="n">
@@ -3352,10 +3352,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="n">
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101" t="n">
@@ -3381,10 +3381,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>1</v>
-      </c>
-      <c r="D102" t="n">
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" t="b">
         <v>0</v>
       </c>
       <c r="E102" t="n">
@@ -3410,10 +3410,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D103" t="n">
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103" t="b">
         <v>0</v>
       </c>
       <c r="E103" t="n">
@@ -3439,10 +3439,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C104" t="n">
-        <v>1</v>
-      </c>
-      <c r="D104" t="n">
+      <c r="C104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104" t="b">
         <v>0</v>
       </c>
       <c r="E104" t="n">
@@ -3468,10 +3468,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="n">
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105" t="b">
         <v>0</v>
       </c>
       <c r="E105" t="n">
@@ -3497,10 +3497,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="n">
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106" t="b">
         <v>0</v>
       </c>
       <c r="E106" t="n">
@@ -3526,10 +3526,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C107" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" t="n">
+      <c r="C107" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107" t="b">
         <v>0</v>
       </c>
       <c r="E107" t="n">
@@ -3555,10 +3555,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="n">
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+      <c r="D108" t="b">
         <v>0</v>
       </c>
       <c r="E108" t="n">
@@ -3584,10 +3584,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D109" t="n">
+      <c r="C109" t="b">
+        <v>1</v>
+      </c>
+      <c r="D109" t="b">
         <v>0</v>
       </c>
       <c r="E109" t="n">
@@ -3613,10 +3613,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C110" t="n">
-        <v>1</v>
-      </c>
-      <c r="D110" t="n">
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+      <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" t="n">
@@ -3642,10 +3642,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C111" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" t="n">
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111" t="b">
         <v>0</v>
       </c>
       <c r="E111" t="n">
@@ -3671,10 +3671,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
+      <c r="C112" t="b">
+        <v>0</v>
+      </c>
+      <c r="D112" t="b">
         <v>0</v>
       </c>
       <c r="E112" t="n">
@@ -3700,10 +3700,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="n">
+      <c r="C113" t="b">
+        <v>0</v>
+      </c>
+      <c r="D113" t="b">
         <v>0</v>
       </c>
       <c r="E113" t="n">
@@ -3729,10 +3729,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="n">
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+      <c r="D114" t="b">
         <v>0</v>
       </c>
       <c r="E114" t="n">
@@ -3758,10 +3758,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C115" t="n">
-        <v>1</v>
-      </c>
-      <c r="D115" t="n">
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+      <c r="D115" t="b">
         <v>0</v>
       </c>
       <c r="E115" t="n">
@@ -3787,10 +3787,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C116" t="n">
-        <v>1</v>
-      </c>
-      <c r="D116" t="n">
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+      <c r="D116" t="b">
         <v>0</v>
       </c>
       <c r="E116" t="n">
@@ -3816,10 +3816,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>1</v>
-      </c>
-      <c r="D117" t="n">
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117" t="n">
@@ -3845,10 +3845,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C118" t="n">
-        <v>2</v>
-      </c>
-      <c r="D118" t="n">
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+      <c r="D118" t="b">
         <v>0</v>
       </c>
       <c r="E118" t="n">
@@ -3874,10 +3874,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="n">
+      <c r="C119" t="b">
+        <v>0</v>
+      </c>
+      <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119" t="n">
@@ -3903,10 +3903,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C120" t="n">
-        <v>1</v>
-      </c>
-      <c r="D120" t="n">
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+      <c r="D120" t="b">
         <v>0</v>
       </c>
       <c r="E120" t="n">
@@ -3932,10 +3932,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C121" t="n">
-        <v>2</v>
-      </c>
-      <c r="D121" t="n">
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+      <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="n">
@@ -3961,10 +3961,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C122" t="n">
-        <v>1</v>
-      </c>
-      <c r="D122" t="n">
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+      <c r="D122" t="b">
         <v>0</v>
       </c>
       <c r="E122" t="n">
@@ -3990,10 +3990,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C123" t="n">
-        <v>1</v>
-      </c>
-      <c r="D123" t="n">
+      <c r="C123" t="b">
+        <v>1</v>
+      </c>
+      <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123" t="n">
@@ -4019,10 +4019,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C124" t="n">
-        <v>0</v>
-      </c>
-      <c r="D124" t="n">
+      <c r="C124" t="b">
+        <v>0</v>
+      </c>
+      <c r="D124" t="b">
         <v>0</v>
       </c>
       <c r="E124" t="n">
@@ -4048,10 +4048,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C125" t="n">
-        <v>1</v>
-      </c>
-      <c r="D125" t="n">
+      <c r="C125" t="b">
+        <v>1</v>
+      </c>
+      <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125" t="n">
@@ -4077,10 +4077,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C126" t="n">
-        <v>1</v>
-      </c>
-      <c r="D126" t="n">
+      <c r="C126" t="b">
+        <v>1</v>
+      </c>
+      <c r="D126" t="b">
         <v>0</v>
       </c>
       <c r="E126" t="n">
@@ -4106,10 +4106,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" t="n">
+      <c r="C127" t="b">
+        <v>0</v>
+      </c>
+      <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127" t="n">
@@ -4135,10 +4135,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C128" t="n">
-        <v>1</v>
-      </c>
-      <c r="D128" t="n">
+      <c r="C128" t="b">
+        <v>1</v>
+      </c>
+      <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128" t="n">
@@ -4164,10 +4164,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C129" t="n">
-        <v>1</v>
-      </c>
-      <c r="D129" t="n">
+      <c r="C129" t="b">
+        <v>1</v>
+      </c>
+      <c r="D129" t="b">
         <v>0</v>
       </c>
       <c r="E129" t="n">
@@ -4193,10 +4193,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C130" t="n">
-        <v>0</v>
-      </c>
-      <c r="D130" t="n">
+      <c r="C130" t="b">
+        <v>0</v>
+      </c>
+      <c r="D130" t="b">
         <v>0</v>
       </c>
       <c r="E130" t="n">
@@ -4222,10 +4222,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C131" t="n">
-        <v>3</v>
-      </c>
-      <c r="D131" t="n">
+      <c r="C131" t="b">
+        <v>1</v>
+      </c>
+      <c r="D131" t="b">
         <v>0</v>
       </c>
       <c r="E131" t="n">
@@ -4251,10 +4251,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C132" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" t="n">
+      <c r="C132" t="b">
+        <v>0</v>
+      </c>
+      <c r="D132" t="b">
         <v>0</v>
       </c>
       <c r="E132" t="n">
@@ -4280,10 +4280,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C133" t="n">
-        <v>0</v>
-      </c>
-      <c r="D133" t="n">
+      <c r="C133" t="b">
+        <v>0</v>
+      </c>
+      <c r="D133" t="b">
         <v>0</v>
       </c>
       <c r="E133" t="n">
@@ -4309,10 +4309,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C134" t="n">
-        <v>0</v>
-      </c>
-      <c r="D134" t="n">
+      <c r="C134" t="b">
+        <v>0</v>
+      </c>
+      <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="n">
@@ -4338,10 +4338,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C135" t="n">
-        <v>1</v>
-      </c>
-      <c r="D135" t="n">
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+      <c r="D135" t="b">
         <v>0</v>
       </c>
       <c r="E135" t="n">
@@ -4367,10 +4367,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C136" t="n">
-        <v>1</v>
-      </c>
-      <c r="D136" t="n">
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+      <c r="D136" t="b">
         <v>0</v>
       </c>
       <c r="E136" t="n">
@@ -4396,10 +4396,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C137" t="n">
-        <v>0</v>
-      </c>
-      <c r="D137" t="n">
+      <c r="C137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D137" t="b">
         <v>0</v>
       </c>
       <c r="E137" t="n">
@@ -4425,10 +4425,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D138" t="n">
+      <c r="C138" t="b">
+        <v>0</v>
+      </c>
+      <c r="D138" t="b">
         <v>0</v>
       </c>
       <c r="E138" t="n">
@@ -4454,10 +4454,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C139" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" t="n">
+      <c r="C139" t="b">
+        <v>1</v>
+      </c>
+      <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139" t="n">
@@ -4483,10 +4483,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C140" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" t="n">
+      <c r="C140" t="b">
+        <v>0</v>
+      </c>
+      <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" t="n">
@@ -4512,10 +4512,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C141" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" t="n">
+      <c r="C141" t="b">
+        <v>0</v>
+      </c>
+      <c r="D141" t="b">
         <v>0</v>
       </c>
       <c r="E141" t="n">
@@ -4541,10 +4541,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" t="n">
+      <c r="C142" t="b">
+        <v>0</v>
+      </c>
+      <c r="D142" t="b">
         <v>0</v>
       </c>
       <c r="E142" t="n">
@@ -4570,10 +4570,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C143" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" t="n">
+      <c r="C143" t="b">
+        <v>0</v>
+      </c>
+      <c r="D143" t="b">
         <v>0</v>
       </c>
       <c r="E143" t="n">
@@ -4599,10 +4599,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C144" t="n">
-        <v>1</v>
-      </c>
-      <c r="D144" t="n">
+      <c r="C144" t="b">
+        <v>1</v>
+      </c>
+      <c r="D144" t="b">
         <v>0</v>
       </c>
       <c r="E144" t="n">
@@ -4628,10 +4628,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C145" t="n">
-        <v>1</v>
-      </c>
-      <c r="D145" t="n">
+      <c r="C145" t="b">
+        <v>1</v>
+      </c>
+      <c r="D145" t="b">
         <v>0</v>
       </c>
       <c r="E145" t="n">
@@ -4657,10 +4657,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C146" t="n">
-        <v>0</v>
-      </c>
-      <c r="D146" t="n">
+      <c r="C146" t="b">
+        <v>0</v>
+      </c>
+      <c r="D146" t="b">
         <v>0</v>
       </c>
       <c r="E146" t="n">
@@ -4686,10 +4686,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C147" t="n">
-        <v>0</v>
-      </c>
-      <c r="D147" t="n">
+      <c r="C147" t="b">
+        <v>0</v>
+      </c>
+      <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147" t="n">
@@ -4715,10 +4715,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C148" t="n">
-        <v>1</v>
-      </c>
-      <c r="D148" t="n">
+      <c r="C148" t="b">
+        <v>1</v>
+      </c>
+      <c r="D148" t="b">
         <v>0</v>
       </c>
       <c r="E148" t="n">
@@ -4744,10 +4744,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C149" t="n">
-        <v>4</v>
-      </c>
-      <c r="D149" t="n">
+      <c r="C149" t="b">
+        <v>1</v>
+      </c>
+      <c r="D149" t="b">
         <v>0</v>
       </c>
       <c r="E149" t="n">
@@ -4773,10 +4773,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C150" t="n">
-        <v>0</v>
-      </c>
-      <c r="D150" t="n">
+      <c r="C150" t="b">
+        <v>0</v>
+      </c>
+      <c r="D150" t="b">
         <v>0</v>
       </c>
       <c r="E150" t="n">
@@ -4802,10 +4802,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C151" t="n">
-        <v>1</v>
-      </c>
-      <c r="D151" t="n">
+      <c r="C151" t="b">
+        <v>1</v>
+      </c>
+      <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151" t="n">
@@ -4831,10 +4831,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C152" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" t="n">
+      <c r="C152" t="b">
+        <v>0</v>
+      </c>
+      <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" t="n">
@@ -4860,10 +4860,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C153" t="n">
-        <v>1</v>
-      </c>
-      <c r="D153" t="n">
+      <c r="C153" t="b">
+        <v>1</v>
+      </c>
+      <c r="D153" t="b">
         <v>0</v>
       </c>
       <c r="E153" t="n">
@@ -4889,10 +4889,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C154" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" t="n">
+      <c r="C154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D154" t="b">
         <v>0</v>
       </c>
       <c r="E154" t="n">
@@ -4918,10 +4918,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C155" t="n">
-        <v>1</v>
-      </c>
-      <c r="D155" t="n">
+      <c r="C155" t="b">
+        <v>1</v>
+      </c>
+      <c r="D155" t="b">
         <v>0</v>
       </c>
       <c r="E155" t="n">
@@ -4947,10 +4947,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C156" t="n">
-        <v>1</v>
-      </c>
-      <c r="D156" t="n">
+      <c r="C156" t="b">
+        <v>1</v>
+      </c>
+      <c r="D156" t="b">
         <v>0</v>
       </c>
       <c r="E156" t="n">
@@ -4976,10 +4976,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C157" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" t="n">
+      <c r="C157" t="b">
+        <v>0</v>
+      </c>
+      <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157" t="n">
@@ -5005,10 +5005,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C158" t="n">
-        <v>0</v>
-      </c>
-      <c r="D158" t="n">
+      <c r="C158" t="b">
+        <v>0</v>
+      </c>
+      <c r="D158" t="b">
         <v>0</v>
       </c>
       <c r="E158" t="n">
@@ -5034,10 +5034,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C159" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" t="n">
+      <c r="C159" t="b">
+        <v>0</v>
+      </c>
+      <c r="D159" t="b">
         <v>0</v>
       </c>
       <c r="E159" t="n">
@@ -5063,10 +5063,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C160" t="n">
-        <v>1</v>
-      </c>
-      <c r="D160" t="n">
+      <c r="C160" t="b">
+        <v>1</v>
+      </c>
+      <c r="D160" t="b">
         <v>0</v>
       </c>
       <c r="E160" t="n">
@@ -5092,10 +5092,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C161" t="n">
-        <v>1</v>
-      </c>
-      <c r="D161" t="n">
+      <c r="C161" t="b">
+        <v>1</v>
+      </c>
+      <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" t="n">
@@ -5121,10 +5121,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" t="n">
+      <c r="C162" t="b">
+        <v>0</v>
+      </c>
+      <c r="D162" t="b">
         <v>0</v>
       </c>
       <c r="E162" t="n">
@@ -5150,10 +5150,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C163" t="n">
-        <v>0</v>
-      </c>
-      <c r="D163" t="n">
+      <c r="C163" t="b">
+        <v>0</v>
+      </c>
+      <c r="D163" t="b">
         <v>0</v>
       </c>
       <c r="E163" t="n">
@@ -5179,10 +5179,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C164" t="n">
-        <v>2</v>
-      </c>
-      <c r="D164" t="n">
+      <c r="C164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D164" t="b">
         <v>0</v>
       </c>
       <c r="E164" t="n">
@@ -5208,10 +5208,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C165" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" t="n">
+      <c r="C165" t="b">
+        <v>0</v>
+      </c>
+      <c r="D165" t="b">
         <v>0</v>
       </c>
       <c r="E165" t="n">
@@ -5237,10 +5237,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C166" t="n">
-        <v>1</v>
-      </c>
-      <c r="D166" t="n">
+      <c r="C166" t="b">
+        <v>1</v>
+      </c>
+      <c r="D166" t="b">
         <v>0</v>
       </c>
       <c r="E166" t="n">
@@ -5266,10 +5266,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C167" t="n">
-        <v>1</v>
-      </c>
-      <c r="D167" t="n">
+      <c r="C167" t="b">
+        <v>1</v>
+      </c>
+      <c r="D167" t="b">
         <v>0</v>
       </c>
       <c r="E167" t="n">
@@ -5295,10 +5295,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C168" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" t="n">
+      <c r="C168" t="b">
+        <v>0</v>
+      </c>
+      <c r="D168" t="b">
         <v>0</v>
       </c>
       <c r="E168" t="n">
@@ -5324,10 +5324,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C169" t="n">
-        <v>2</v>
-      </c>
-      <c r="D169" t="n">
+      <c r="C169" t="b">
+        <v>1</v>
+      </c>
+      <c r="D169" t="b">
         <v>0</v>
       </c>
       <c r="E169" t="n">
@@ -5353,10 +5353,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C170" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" t="n">
+      <c r="C170" t="b">
+        <v>0</v>
+      </c>
+      <c r="D170" t="b">
         <v>0</v>
       </c>
       <c r="E170" t="n">
@@ -5382,10 +5382,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C171" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171" t="n">
+      <c r="C171" t="b">
+        <v>0</v>
+      </c>
+      <c r="D171" t="b">
         <v>0</v>
       </c>
       <c r="E171" t="n">
@@ -5411,10 +5411,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C172" t="n">
-        <v>0</v>
-      </c>
-      <c r="D172" t="n">
+      <c r="C172" t="b">
+        <v>0</v>
+      </c>
+      <c r="D172" t="b">
         <v>0</v>
       </c>
       <c r="E172" t="n">
@@ -5440,10 +5440,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C173" t="n">
-        <v>1</v>
-      </c>
-      <c r="D173" t="n">
+      <c r="C173" t="b">
+        <v>1</v>
+      </c>
+      <c r="D173" t="b">
         <v>0</v>
       </c>
       <c r="E173" t="n">
@@ -5469,10 +5469,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C174" t="n">
-        <v>0</v>
-      </c>
-      <c r="D174" t="n">
+      <c r="C174" t="b">
+        <v>0</v>
+      </c>
+      <c r="D174" t="b">
         <v>0</v>
       </c>
       <c r="E174" t="n">
@@ -5498,10 +5498,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C175" t="n">
-        <v>1</v>
-      </c>
-      <c r="D175" t="n">
+      <c r="C175" t="b">
+        <v>1</v>
+      </c>
+      <c r="D175" t="b">
         <v>0</v>
       </c>
       <c r="E175" t="n">
@@ -5527,10 +5527,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C176" t="n">
-        <v>1</v>
-      </c>
-      <c r="D176" t="n">
+      <c r="C176" t="b">
+        <v>1</v>
+      </c>
+      <c r="D176" t="b">
         <v>0</v>
       </c>
       <c r="E176" t="n">
@@ -5556,10 +5556,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C177" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" t="n">
+      <c r="C177" t="b">
+        <v>0</v>
+      </c>
+      <c r="D177" t="b">
         <v>0</v>
       </c>
       <c r="E177" t="n">
@@ -5585,10 +5585,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C178" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" t="n">
+      <c r="C178" t="b">
+        <v>0</v>
+      </c>
+      <c r="D178" t="b">
         <v>0</v>
       </c>
       <c r="E178" t="n">
@@ -5614,10 +5614,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C179" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" t="n">
+      <c r="C179" t="b">
+        <v>0</v>
+      </c>
+      <c r="D179" t="b">
         <v>0</v>
       </c>
       <c r="E179" t="n">
@@ -5643,10 +5643,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C180" t="n">
-        <v>3</v>
-      </c>
-      <c r="D180" t="n">
+      <c r="C180" t="b">
+        <v>1</v>
+      </c>
+      <c r="D180" t="b">
         <v>0</v>
       </c>
       <c r="E180" t="n">
@@ -5672,10 +5672,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C181" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" t="n">
+      <c r="C181" t="b">
+        <v>0</v>
+      </c>
+      <c r="D181" t="b">
         <v>0</v>
       </c>
       <c r="E181" t="n">
@@ -5701,10 +5701,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C182" t="n">
-        <v>1</v>
-      </c>
-      <c r="D182" t="n">
+      <c r="C182" t="b">
+        <v>1</v>
+      </c>
+      <c r="D182" t="b">
         <v>0</v>
       </c>
       <c r="E182" t="n">
@@ -5730,10 +5730,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C183" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" t="n">
+      <c r="C183" t="b">
+        <v>0</v>
+      </c>
+      <c r="D183" t="b">
         <v>0</v>
       </c>
       <c r="E183" t="n">
@@ -5759,10 +5759,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C184" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" t="n">
+      <c r="C184" t="b">
+        <v>0</v>
+      </c>
+      <c r="D184" t="b">
         <v>0</v>
       </c>
       <c r="E184" t="n">
@@ -5788,10 +5788,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" t="n">
+      <c r="C185" t="b">
+        <v>0</v>
+      </c>
+      <c r="D185" t="b">
         <v>0</v>
       </c>
       <c r="E185" t="n">
@@ -5817,10 +5817,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C186" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" t="n">
+      <c r="C186" t="b">
+        <v>0</v>
+      </c>
+      <c r="D186" t="b">
         <v>0</v>
       </c>
       <c r="E186" t="n">
@@ -5846,10 +5846,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C187" t="n">
-        <v>1</v>
-      </c>
-      <c r="D187" t="n">
+      <c r="C187" t="b">
+        <v>1</v>
+      </c>
+      <c r="D187" t="b">
         <v>0</v>
       </c>
       <c r="E187" t="n">
@@ -5875,10 +5875,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C188" t="n">
-        <v>0</v>
-      </c>
-      <c r="D188" t="n">
+      <c r="C188" t="b">
+        <v>0</v>
+      </c>
+      <c r="D188" t="b">
         <v>0</v>
       </c>
       <c r="E188" t="n">
@@ -5904,10 +5904,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C189" t="n">
-        <v>0</v>
-      </c>
-      <c r="D189" t="n">
+      <c r="C189" t="b">
+        <v>0</v>
+      </c>
+      <c r="D189" t="b">
         <v>0</v>
       </c>
       <c r="E189" t="n">
@@ -5933,10 +5933,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C190" t="n">
-        <v>0</v>
-      </c>
-      <c r="D190" t="n">
+      <c r="C190" t="b">
+        <v>0</v>
+      </c>
+      <c r="D190" t="b">
         <v>0</v>
       </c>
       <c r="E190" t="n">
@@ -5962,10 +5962,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C191" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" t="n">
+      <c r="C191" t="b">
+        <v>0</v>
+      </c>
+      <c r="D191" t="b">
         <v>0</v>
       </c>
       <c r="E191" t="n">
@@ -5991,10 +5991,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C192" t="n">
-        <v>0</v>
-      </c>
-      <c r="D192" t="n">
+      <c r="C192" t="b">
+        <v>0</v>
+      </c>
+      <c r="D192" t="b">
         <v>0</v>
       </c>
       <c r="E192" t="n">
@@ -6020,10 +6020,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C193" t="n">
-        <v>0</v>
-      </c>
-      <c r="D193" t="n">
+      <c r="C193" t="b">
+        <v>0</v>
+      </c>
+      <c r="D193" t="b">
         <v>0</v>
       </c>
       <c r="E193" t="n">
@@ -6049,10 +6049,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C194" t="n">
-        <v>0</v>
-      </c>
-      <c r="D194" t="n">
+      <c r="C194" t="b">
+        <v>0</v>
+      </c>
+      <c r="D194" t="b">
         <v>0</v>
       </c>
       <c r="E194" t="n">
@@ -6078,10 +6078,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C195" t="n">
-        <v>0</v>
-      </c>
-      <c r="D195" t="n">
+      <c r="C195" t="b">
+        <v>0</v>
+      </c>
+      <c r="D195" t="b">
         <v>0</v>
       </c>
       <c r="E195" t="n">
@@ -6107,10 +6107,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C196" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" t="n">
+      <c r="C196" t="b">
+        <v>0</v>
+      </c>
+      <c r="D196" t="b">
         <v>0</v>
       </c>
       <c r="E196" t="n">
@@ -6136,10 +6136,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C197" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" t="n">
+      <c r="C197" t="b">
+        <v>0</v>
+      </c>
+      <c r="D197" t="b">
         <v>0</v>
       </c>
       <c r="E197" t="n">
@@ -6165,10 +6165,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C198" t="n">
-        <v>1</v>
-      </c>
-      <c r="D198" t="n">
+      <c r="C198" t="b">
+        <v>1</v>
+      </c>
+      <c r="D198" t="b">
         <v>0</v>
       </c>
       <c r="E198" t="n">
@@ -6194,10 +6194,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C199" t="n">
-        <v>1</v>
-      </c>
-      <c r="D199" t="n">
+      <c r="C199" t="b">
+        <v>1</v>
+      </c>
+      <c r="D199" t="b">
         <v>0</v>
       </c>
       <c r="E199" t="n">
@@ -6223,10 +6223,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C200" t="n">
-        <v>1</v>
-      </c>
-      <c r="D200" t="n">
+      <c r="C200" t="b">
+        <v>1</v>
+      </c>
+      <c r="D200" t="b">
         <v>0</v>
       </c>
       <c r="E200" t="n">
@@ -6252,10 +6252,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C201" t="n">
-        <v>0</v>
-      </c>
-      <c r="D201" t="n">
+      <c r="C201" t="b">
+        <v>0</v>
+      </c>
+      <c r="D201" t="b">
         <v>0</v>
       </c>
       <c r="E201" t="n">
@@ -6281,10 +6281,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C202" t="n">
-        <v>1</v>
-      </c>
-      <c r="D202" t="n">
+      <c r="C202" t="b">
+        <v>1</v>
+      </c>
+      <c r="D202" t="b">
         <v>0</v>
       </c>
       <c r="E202" t="n">
@@ -6310,10 +6310,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C203" t="n">
-        <v>0</v>
-      </c>
-      <c r="D203" t="n">
+      <c r="C203" t="b">
+        <v>0</v>
+      </c>
+      <c r="D203" t="b">
         <v>0</v>
       </c>
       <c r="E203" t="n">
@@ -6339,10 +6339,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C204" t="n">
-        <v>2</v>
-      </c>
-      <c r="D204" t="n">
+      <c r="C204" t="b">
+        <v>1</v>
+      </c>
+      <c r="D204" t="b">
         <v>0</v>
       </c>
       <c r="E204" t="n">
@@ -6368,10 +6368,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C205" t="n">
-        <v>2</v>
-      </c>
-      <c r="D205" t="n">
+      <c r="C205" t="b">
+        <v>1</v>
+      </c>
+      <c r="D205" t="b">
         <v>0</v>
       </c>
       <c r="E205" t="n">
@@ -6397,10 +6397,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C206" t="n">
-        <v>2</v>
-      </c>
-      <c r="D206" t="n">
+      <c r="C206" t="b">
+        <v>1</v>
+      </c>
+      <c r="D206" t="b">
         <v>0</v>
       </c>
       <c r="E206" t="n">
@@ -6426,10 +6426,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C207" t="n">
-        <v>1</v>
-      </c>
-      <c r="D207" t="n">
+      <c r="C207" t="b">
+        <v>1</v>
+      </c>
+      <c r="D207" t="b">
         <v>0</v>
       </c>
       <c r="E207" t="n">
@@ -6455,10 +6455,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C208" t="n">
-        <v>1</v>
-      </c>
-      <c r="D208" t="n">
+      <c r="C208" t="b">
+        <v>1</v>
+      </c>
+      <c r="D208" t="b">
         <v>0</v>
       </c>
       <c r="E208" t="n">
@@ -6484,10 +6484,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C209" t="n">
-        <v>1</v>
-      </c>
-      <c r="D209" t="n">
+      <c r="C209" t="b">
+        <v>1</v>
+      </c>
+      <c r="D209" t="b">
         <v>0</v>
       </c>
       <c r="E209" t="n">
@@ -6513,10 +6513,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C210" t="n">
-        <v>1</v>
-      </c>
-      <c r="D210" t="n">
+      <c r="C210" t="b">
+        <v>1</v>
+      </c>
+      <c r="D210" t="b">
         <v>0</v>
       </c>
       <c r="E210" t="n">
@@ -6542,10 +6542,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C211" t="n">
-        <v>0</v>
-      </c>
-      <c r="D211" t="n">
+      <c r="C211" t="b">
+        <v>0</v>
+      </c>
+      <c r="D211" t="b">
         <v>0</v>
       </c>
       <c r="E211" t="n">
@@ -6571,10 +6571,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C212" t="n">
-        <v>1</v>
-      </c>
-      <c r="D212" t="n">
+      <c r="C212" t="b">
+        <v>1</v>
+      </c>
+      <c r="D212" t="b">
         <v>0</v>
       </c>
       <c r="E212" t="n">
@@ -6600,10 +6600,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C213" t="n">
-        <v>0</v>
-      </c>
-      <c r="D213" t="n">
+      <c r="C213" t="b">
+        <v>0</v>
+      </c>
+      <c r="D213" t="b">
         <v>0</v>
       </c>
       <c r="E213" t="n">
@@ -6629,10 +6629,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C214" t="n">
-        <v>0</v>
-      </c>
-      <c r="D214" t="n">
+      <c r="C214" t="b">
+        <v>0</v>
+      </c>
+      <c r="D214" t="b">
         <v>0</v>
       </c>
       <c r="E214" t="n">
@@ -6658,10 +6658,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C215" t="n">
-        <v>1</v>
-      </c>
-      <c r="D215" t="n">
+      <c r="C215" t="b">
+        <v>1</v>
+      </c>
+      <c r="D215" t="b">
         <v>0</v>
       </c>
       <c r="E215" t="n">
@@ -6687,10 +6687,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C216" t="n">
-        <v>0</v>
-      </c>
-      <c r="D216" t="n">
+      <c r="C216" t="b">
+        <v>0</v>
+      </c>
+      <c r="D216" t="b">
         <v>0</v>
       </c>
       <c r="E216" t="n">
@@ -6716,10 +6716,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C217" t="n">
-        <v>1</v>
-      </c>
-      <c r="D217" t="n">
+      <c r="C217" t="b">
+        <v>1</v>
+      </c>
+      <c r="D217" t="b">
         <v>0</v>
       </c>
       <c r="E217" t="n">
@@ -6745,10 +6745,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C218" t="n">
-        <v>0</v>
-      </c>
-      <c r="D218" t="n">
+      <c r="C218" t="b">
+        <v>0</v>
+      </c>
+      <c r="D218" t="b">
         <v>0</v>
       </c>
       <c r="E218" t="n">
@@ -6774,10 +6774,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C219" t="n">
-        <v>0</v>
-      </c>
-      <c r="D219" t="n">
+      <c r="C219" t="b">
+        <v>0</v>
+      </c>
+      <c r="D219" t="b">
         <v>0</v>
       </c>
       <c r="E219" t="n">
@@ -6803,10 +6803,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C220" t="n">
-        <v>0</v>
-      </c>
-      <c r="D220" t="n">
+      <c r="C220" t="b">
+        <v>0</v>
+      </c>
+      <c r="D220" t="b">
         <v>0</v>
       </c>
       <c r="E220" t="n">
@@ -6832,10 +6832,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C221" t="n">
-        <v>2</v>
-      </c>
-      <c r="D221" t="n">
+      <c r="C221" t="b">
+        <v>1</v>
+      </c>
+      <c r="D221" t="b">
         <v>0</v>
       </c>
       <c r="E221" t="n">
@@ -6861,10 +6861,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C222" t="n">
-        <v>1</v>
-      </c>
-      <c r="D222" t="n">
+      <c r="C222" t="b">
+        <v>1</v>
+      </c>
+      <c r="D222" t="b">
         <v>0</v>
       </c>
       <c r="E222" t="n">
@@ -6890,10 +6890,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C223" t="n">
-        <v>0</v>
-      </c>
-      <c r="D223" t="n">
+      <c r="C223" t="b">
+        <v>0</v>
+      </c>
+      <c r="D223" t="b">
         <v>0</v>
       </c>
       <c r="E223" t="n">
@@ -6919,10 +6919,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C224" t="n">
-        <v>0</v>
-      </c>
-      <c r="D224" t="n">
+      <c r="C224" t="b">
+        <v>0</v>
+      </c>
+      <c r="D224" t="b">
         <v>0</v>
       </c>
       <c r="E224" t="n">
@@ -6948,10 +6948,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C225" t="n">
-        <v>0</v>
-      </c>
-      <c r="D225" t="n">
+      <c r="C225" t="b">
+        <v>0</v>
+      </c>
+      <c r="D225" t="b">
         <v>0</v>
       </c>
       <c r="E225" t="n">
@@ -6977,10 +6977,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C226" t="n">
-        <v>0</v>
-      </c>
-      <c r="D226" t="n">
+      <c r="C226" t="b">
+        <v>0</v>
+      </c>
+      <c r="D226" t="b">
         <v>0</v>
       </c>
       <c r="E226" t="n">
@@ -7006,10 +7006,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C227" t="n">
-        <v>0</v>
-      </c>
-      <c r="D227" t="n">
+      <c r="C227" t="b">
+        <v>0</v>
+      </c>
+      <c r="D227" t="b">
         <v>0</v>
       </c>
       <c r="E227" t="n">
@@ -7035,10 +7035,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C228" t="n">
-        <v>0</v>
-      </c>
-      <c r="D228" t="n">
+      <c r="C228" t="b">
+        <v>0</v>
+      </c>
+      <c r="D228" t="b">
         <v>0</v>
       </c>
       <c r="E228" t="n">
@@ -7064,10 +7064,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C229" t="n">
-        <v>1</v>
-      </c>
-      <c r="D229" t="n">
+      <c r="C229" t="b">
+        <v>1</v>
+      </c>
+      <c r="D229" t="b">
         <v>0</v>
       </c>
       <c r="E229" t="n">
@@ -7093,10 +7093,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C230" t="n">
-        <v>1</v>
-      </c>
-      <c r="D230" t="n">
+      <c r="C230" t="b">
+        <v>1</v>
+      </c>
+      <c r="D230" t="b">
         <v>0</v>
       </c>
       <c r="E230" t="n">
@@ -7122,10 +7122,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C231" t="n">
-        <v>0</v>
-      </c>
-      <c r="D231" t="n">
+      <c r="C231" t="b">
+        <v>0</v>
+      </c>
+      <c r="D231" t="b">
         <v>0</v>
       </c>
       <c r="E231" t="n">
@@ -7151,10 +7151,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C232" t="n">
-        <v>0</v>
-      </c>
-      <c r="D232" t="n">
+      <c r="C232" t="b">
+        <v>0</v>
+      </c>
+      <c r="D232" t="b">
         <v>0</v>
       </c>
       <c r="E232" t="n">
@@ -7180,10 +7180,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C233" t="n">
-        <v>0</v>
-      </c>
-      <c r="D233" t="n">
+      <c r="C233" t="b">
+        <v>0</v>
+      </c>
+      <c r="D233" t="b">
         <v>0</v>
       </c>
       <c r="E233" t="n">
@@ -7209,10 +7209,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C234" t="n">
-        <v>0</v>
-      </c>
-      <c r="D234" t="n">
+      <c r="C234" t="b">
+        <v>0</v>
+      </c>
+      <c r="D234" t="b">
         <v>0</v>
       </c>
       <c r="E234" t="n">
@@ -7238,10 +7238,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C235" t="n">
-        <v>1</v>
-      </c>
-      <c r="D235" t="n">
+      <c r="C235" t="b">
+        <v>1</v>
+      </c>
+      <c r="D235" t="b">
         <v>0</v>
       </c>
       <c r="E235" t="n">
@@ -7267,10 +7267,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C236" t="n">
-        <v>2</v>
-      </c>
-      <c r="D236" t="n">
+      <c r="C236" t="b">
+        <v>1</v>
+      </c>
+      <c r="D236" t="b">
         <v>0</v>
       </c>
       <c r="E236" t="n">
@@ -7296,10 +7296,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C237" t="n">
-        <v>0</v>
-      </c>
-      <c r="D237" t="n">
+      <c r="C237" t="b">
+        <v>0</v>
+      </c>
+      <c r="D237" t="b">
         <v>0</v>
       </c>
       <c r="E237" t="n">
@@ -7325,10 +7325,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C238" t="n">
-        <v>1</v>
-      </c>
-      <c r="D238" t="n">
+      <c r="C238" t="b">
+        <v>1</v>
+      </c>
+      <c r="D238" t="b">
         <v>0</v>
       </c>
       <c r="E238" t="n">
@@ -7354,10 +7354,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C239" t="n">
-        <v>1</v>
-      </c>
-      <c r="D239" t="n">
+      <c r="C239" t="b">
+        <v>1</v>
+      </c>
+      <c r="D239" t="b">
         <v>0</v>
       </c>
       <c r="E239" t="n">
@@ -7383,10 +7383,10 @@
           <t>note</t>
         </is>
       </c>
-      <c r="C240" t="n">
-        <v>1</v>
-      </c>
-      <c r="D240" t="n">
+      <c r="C240" t="b">
+        <v>1</v>
+      </c>
+      <c r="D240" t="b">
         <v>0</v>
       </c>
       <c r="E240" t="n">
